--- a/data/site_summaries_25.xlsx
+++ b/data/site_summaries_25.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsz/Documents/UNIL/opfo_sampling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsz/Documents/unil/opfo_main/1_opfo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D9A4A-6A03-5846-8955-7A169CA0C4A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3430ADC-808F-FE47-A8A5-2773CA0E2AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_summaries_25" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -100,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1043,11 +1035,11 @@
   <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -1058,7 +1050,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1104,7 +1096,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1127,7 +1119,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1173,7 +1165,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1242,7 +1234,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -1288,7 +1280,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -1302,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <v>45</v>
@@ -1311,7 +1303,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -1334,7 +1326,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -1357,7 +1349,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1380,7 +1372,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -1403,7 +1395,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -1426,7 +1418,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -1472,7 +1464,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -1495,7 +1487,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -1518,7 +1510,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -1541,7 +1533,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -1564,7 +1556,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -1587,7 +1579,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -1610,7 +1602,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -1633,7 +1625,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="13">
         <v>3</v>
       </c>
@@ -1656,7 +1648,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="7">
         <v>4</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -1702,7 +1694,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1725,7 +1717,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="10">
         <v>4</v>
       </c>
@@ -1748,7 +1740,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -1771,7 +1763,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -1794,7 +1786,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -1817,7 +1809,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -1840,7 +1832,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -1863,7 +1855,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="13">
         <v>4</v>
       </c>
@@ -1886,7 +1878,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="7">
         <v>5</v>
       </c>
@@ -1909,7 +1901,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="10">
         <v>5</v>
       </c>
@@ -1932,7 +1924,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -1955,7 +1947,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -1978,7 +1970,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -2001,7 +1993,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -2024,7 +2016,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="13">
         <v>5</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -2070,7 +2062,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="10">
         <v>6</v>
       </c>
@@ -2093,7 +2085,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="10">
         <v>6</v>
       </c>
@@ -2116,7 +2108,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="10">
         <v>6</v>
       </c>
@@ -2139,7 +2131,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="10">
         <v>6</v>
       </c>
@@ -2162,7 +2154,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -2185,7 +2177,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -2208,7 +2200,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="13">
         <v>6</v>
       </c>
@@ -2231,7 +2223,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="7">
         <v>7</v>
       </c>
@@ -2254,7 +2246,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="10">
         <v>7</v>
       </c>
@@ -2277,7 +2269,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -2300,7 +2292,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="10">
         <v>7</v>
       </c>
@@ -2323,7 +2315,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -2346,7 +2338,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="10">
         <v>7</v>
       </c>
@@ -2369,7 +2361,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -2392,7 +2384,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -2415,7 +2407,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="7">
         <v>8</v>
       </c>
@@ -2438,7 +2430,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="10">
         <v>8</v>
       </c>
@@ -2461,7 +2453,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -2484,7 +2476,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -2507,7 +2499,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="10">
         <v>8</v>
       </c>
@@ -2530,7 +2522,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="10">
         <v>8</v>
       </c>
@@ -2553,7 +2545,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="10">
         <v>8</v>
       </c>
@@ -2576,7 +2568,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -2599,7 +2591,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="13">
         <v>8</v>
       </c>
@@ -2622,7 +2614,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="10">
         <v>9</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="10">
         <v>9</v>
       </c>
@@ -2668,7 +2660,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="10">
         <v>9</v>
       </c>
@@ -2691,7 +2683,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -2714,7 +2706,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="10">
         <v>9</v>
       </c>
@@ -2737,7 +2729,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="10">
         <v>9</v>
       </c>
@@ -2760,7 +2752,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="13">
         <v>9</v>
       </c>
@@ -2783,7 +2775,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="7">
         <v>10</v>
       </c>
@@ -2806,7 +2798,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="10">
         <v>10</v>
       </c>
@@ -2829,7 +2821,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="10">
         <v>10</v>
       </c>
@@ -2852,7 +2844,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="10">
         <v>10</v>
       </c>
@@ -2875,7 +2867,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="10">
         <v>10</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="10">
         <v>10</v>
       </c>
@@ -2921,7 +2913,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="10">
         <v>10</v>
       </c>
@@ -2944,7 +2936,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="10">
         <v>10</v>
       </c>
@@ -2967,7 +2959,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="13">
         <v>10</v>
       </c>
@@ -2990,7 +2982,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="7">
         <v>11</v>
       </c>
@@ -3013,7 +3005,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="10">
         <v>11</v>
       </c>
@@ -3036,7 +3028,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="10">
         <v>11</v>
       </c>
@@ -3059,7 +3051,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="10">
         <v>11</v>
       </c>
@@ -3082,7 +3074,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="10">
         <v>11</v>
       </c>
@@ -3105,7 +3097,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="10">
         <v>11</v>
       </c>
@@ -3128,7 +3120,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="10">
         <v>11</v>
       </c>
@@ -3151,7 +3143,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="10">
         <v>11</v>
       </c>
@@ -3174,7 +3166,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="10">
         <v>11</v>
       </c>
@@ -3197,7 +3189,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="7">
         <v>12</v>
       </c>
@@ -3220,7 +3212,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="10">
         <v>12</v>
       </c>
@@ -3243,7 +3235,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="10">
         <v>12</v>
       </c>
@@ -3266,7 +3258,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="10">
         <v>12</v>
       </c>
@@ -3289,7 +3281,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="10">
         <v>12</v>
       </c>
@@ -3312,7 +3304,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="10">
         <v>12</v>
       </c>
@@ -3335,7 +3327,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="10">
         <v>12</v>
       </c>
@@ -3358,7 +3350,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="10">
         <v>12</v>
       </c>
@@ -3381,7 +3373,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="10">
         <v>12</v>
       </c>
@@ -3404,7 +3396,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="13">
         <v>12</v>
       </c>
@@ -3427,7 +3419,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="10">
         <v>13</v>
       </c>
@@ -3441,7 +3433,7 @@
         <v>36</v>
       </c>
       <c r="E104" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F104" s="11">
         <v>710</v>
@@ -3450,7 +3442,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="10">
         <v>13</v>
       </c>
@@ -3473,7 +3465,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="10">
         <v>13</v>
       </c>
@@ -3487,7 +3479,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106" s="11">
         <v>439</v>
@@ -3496,7 +3488,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="10">
         <v>13</v>
       </c>
@@ -3510,7 +3502,7 @@
         <v>13</v>
       </c>
       <c r="E107" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F107" s="11">
         <v>256</v>
@@ -3519,7 +3511,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="10">
         <v>13</v>
       </c>
@@ -3542,7 +3534,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="10">
         <v>13</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="13">
         <v>13</v>
       </c>
@@ -3588,7 +3580,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -3611,7 +3603,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3">
         <v>14</v>
       </c>
@@ -3634,7 +3626,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3">
         <v>14</v>
       </c>
@@ -3657,7 +3649,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3">
         <v>14</v>
       </c>
@@ -3680,7 +3672,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3">
         <v>14</v>
       </c>
@@ -3703,7 +3695,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3">
         <v>14</v>
       </c>
@@ -3726,7 +3718,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3">
         <v>14</v>
       </c>
@@ -3749,7 +3741,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="5">
         <v>14</v>
       </c>
@@ -3772,7 +3764,7 @@
         <v>43712</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="7">
         <v>15</v>
       </c>
@@ -3795,7 +3787,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="10">
         <v>15</v>
       </c>
@@ -3818,7 +3810,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="10">
         <v>15</v>
       </c>
@@ -3841,7 +3833,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="10">
         <v>15</v>
       </c>
@@ -3864,7 +3856,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="10">
         <v>15</v>
       </c>
@@ -3887,7 +3879,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="10">
         <v>15</v>
       </c>
@@ -3910,7 +3902,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="13">
         <v>15</v>
       </c>
@@ -3933,7 +3925,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>16</v>
       </c>
@@ -3956,7 +3948,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3">
         <v>16</v>
       </c>
@@ -3979,7 +3971,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3">
         <v>16</v>
       </c>
@@ -4002,7 +3994,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="5">
         <v>16</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>17</v>
       </c>
@@ -4048,7 +4040,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="3">
         <v>17</v>
       </c>
@@ -4071,7 +4063,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="3">
         <v>17</v>
       </c>
@@ -4094,7 +4086,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="3">
         <v>17</v>
       </c>
@@ -4117,7 +4109,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="3">
         <v>17</v>
       </c>
@@ -4140,7 +4132,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="3">
         <v>17</v>
       </c>
@@ -4163,7 +4155,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="3">
         <v>17</v>
       </c>
@@ -4186,7 +4178,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="5">
         <v>17</v>
       </c>
@@ -4209,7 +4201,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="7">
         <v>18</v>
       </c>
@@ -4232,7 +4224,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="10">
         <v>18</v>
       </c>
@@ -4255,7 +4247,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="10">
         <v>18</v>
       </c>
@@ -4278,7 +4270,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="10">
         <v>18</v>
       </c>
@@ -4301,7 +4293,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="10">
         <v>18</v>
       </c>
@@ -4324,7 +4316,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="10">
         <v>18</v>
       </c>
@@ -4347,7 +4339,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="13">
         <v>18</v>
       </c>
@@ -4370,7 +4362,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="7">
         <v>19</v>
       </c>
@@ -4393,7 +4385,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="10">
         <v>19</v>
       </c>
@@ -4416,7 +4408,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="10">
         <v>19</v>
       </c>
@@ -4439,7 +4431,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="10">
         <v>19</v>
       </c>
@@ -4462,7 +4454,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="10">
         <v>19</v>
       </c>
@@ -4485,7 +4477,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="10">
         <v>19</v>
       </c>
@@ -4508,7 +4500,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="10">
         <v>19</v>
       </c>
@@ -4531,7 +4523,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="10">
         <v>19</v>
       </c>
@@ -4554,7 +4546,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="10">
         <v>19</v>
       </c>
@@ -4577,7 +4569,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="13">
         <v>19</v>
       </c>
@@ -4600,7 +4592,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="7">
         <v>20</v>
       </c>
@@ -4623,7 +4615,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="10">
         <v>20</v>
       </c>
@@ -4646,7 +4638,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="10">
         <v>20</v>
       </c>
@@ -4669,7 +4661,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="10">
         <v>20</v>
       </c>
@@ -4692,7 +4684,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="10">
         <v>20</v>
       </c>
@@ -4715,7 +4707,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="10">
         <v>20</v>
       </c>
@@ -4738,7 +4730,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="13">
         <v>20</v>
       </c>
@@ -4761,7 +4753,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="7">
         <v>21</v>
       </c>
@@ -4784,7 +4776,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="10">
         <v>21</v>
       </c>
@@ -4807,7 +4799,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="10">
         <v>21</v>
       </c>
@@ -4830,7 +4822,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="10">
         <v>21</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="10">
         <v>21</v>
       </c>
@@ -4876,7 +4868,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="10">
         <v>21</v>
       </c>
@@ -4899,7 +4891,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="10">
         <v>21</v>
       </c>
@@ -4922,7 +4914,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="13">
         <v>21</v>
       </c>
@@ -4945,7 +4937,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="7">
         <v>22</v>
       </c>
@@ -4968,7 +4960,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="10">
         <v>22</v>
       </c>
@@ -4991,7 +4983,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="10">
         <v>22</v>
       </c>
@@ -5014,7 +5006,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="10">
         <v>22</v>
       </c>
@@ -5037,7 +5029,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="10">
         <v>22</v>
       </c>
@@ -5060,7 +5052,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="13">
         <v>22</v>
       </c>
@@ -5083,7 +5075,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="7">
         <v>23</v>
       </c>
@@ -5106,7 +5098,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="10">
         <v>23</v>
       </c>
@@ -5129,7 +5121,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="10">
         <v>23</v>
       </c>
@@ -5152,7 +5144,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="10">
         <v>23</v>
       </c>
@@ -5175,7 +5167,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="10">
         <v>23</v>
       </c>
@@ -5198,7 +5190,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="10">
         <v>23</v>
       </c>
@@ -5221,7 +5213,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="13">
         <v>23</v>
       </c>
@@ -5244,7 +5236,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>24</v>
       </c>
@@ -5267,7 +5259,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="3">
         <v>24</v>
       </c>
@@ -5290,7 +5282,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="3">
         <v>24</v>
       </c>
@@ -5313,7 +5305,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="3">
         <v>24</v>
       </c>
@@ -5336,7 +5328,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="3">
         <v>24</v>
       </c>
@@ -5359,7 +5351,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="3">
         <v>24</v>
       </c>
@@ -5382,7 +5374,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="5">
         <v>24</v>
       </c>
@@ -5405,7 +5397,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="7">
         <v>25</v>
       </c>
@@ -5428,7 +5420,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="10">
         <v>25</v>
       </c>
@@ -5451,7 +5443,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="10">
         <v>25</v>
       </c>
@@ -5474,7 +5466,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="10">
         <v>25</v>
       </c>
@@ -5497,7 +5489,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="10">
         <v>25</v>
       </c>
@@ -5520,7 +5512,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="13">
         <v>25</v>
       </c>
@@ -5543,7 +5535,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="7">
         <v>26</v>
       </c>
@@ -5566,7 +5558,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="10">
         <v>26</v>
       </c>
@@ -5589,7 +5581,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="10">
         <v>26</v>
       </c>
@@ -5612,7 +5604,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="10">
         <v>26</v>
       </c>
@@ -5635,7 +5627,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="10">
         <v>26</v>
       </c>
@@ -5658,7 +5650,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="10">
         <v>26</v>
       </c>
@@ -5681,7 +5673,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="13">
         <v>26</v>
       </c>
@@ -5704,7 +5696,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="7">
         <v>27</v>
       </c>
@@ -5727,7 +5719,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="10">
         <v>27</v>
       </c>
@@ -5750,7 +5742,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="10">
         <v>27</v>
       </c>
@@ -5773,7 +5765,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="10">
         <v>27</v>
       </c>
@@ -5796,7 +5788,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="10">
         <v>27</v>
       </c>
@@ -5819,7 +5811,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="10">
         <v>27</v>
       </c>
@@ -5842,7 +5834,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="13">
         <v>27</v>
       </c>
@@ -5865,7 +5857,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="10">
         <v>28</v>
       </c>
@@ -5888,7 +5880,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="10">
         <v>28</v>
       </c>
@@ -5911,7 +5903,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="10">
         <v>28</v>
       </c>
@@ -5934,7 +5926,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="10">
         <v>28</v>
       </c>
@@ -5957,7 +5949,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="10">
         <v>28</v>
       </c>
@@ -5980,7 +5972,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="10">
         <v>28</v>
       </c>
@@ -6003,7 +5995,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="10">
         <v>28</v>
       </c>
@@ -6026,7 +6018,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="13">
         <v>28</v>
       </c>
@@ -6049,7 +6041,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="7">
         <v>29</v>
       </c>
@@ -6072,7 +6064,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="10">
         <v>29</v>
       </c>
@@ -6095,7 +6087,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="10">
         <v>29</v>
       </c>
@@ -6118,7 +6110,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="10">
         <v>29</v>
       </c>
@@ -6141,7 +6133,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="10">
         <v>29</v>
       </c>
@@ -6164,7 +6156,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="10">
         <v>29</v>
       </c>
@@ -6187,7 +6179,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="10">
         <v>29</v>
       </c>
@@ -6210,7 +6202,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="13">
         <v>29</v>
       </c>
@@ -6233,7 +6225,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="7">
         <v>30</v>
       </c>
@@ -6256,7 +6248,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="10">
         <v>30</v>
       </c>
@@ -6279,7 +6271,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="10">
         <v>30</v>
       </c>
@@ -6302,7 +6294,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="10">
         <v>30</v>
       </c>
@@ -6325,7 +6317,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="10">
         <v>30</v>
       </c>
@@ -6348,7 +6340,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="10">
         <v>30</v>
       </c>
@@ -6371,7 +6363,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="10">
         <v>30</v>
       </c>
@@ -6394,7 +6386,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="7">
         <v>31</v>
       </c>
@@ -6417,7 +6409,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="10">
         <v>31</v>
       </c>
@@ -6440,7 +6432,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="10">
         <v>31</v>
       </c>
@@ -6463,7 +6455,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="10">
         <v>31</v>
       </c>
@@ -6486,7 +6478,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="10">
         <v>31</v>
       </c>
@@ -6509,7 +6501,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="13">
         <v>31</v>
       </c>
@@ -6532,7 +6524,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="10">
         <v>32</v>
       </c>
@@ -6555,7 +6547,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="10">
         <v>32</v>
       </c>
@@ -6578,7 +6570,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="10">
         <v>32</v>
       </c>
@@ -6601,7 +6593,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" s="10">
         <v>32</v>
       </c>
@@ -6624,7 +6616,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="10">
         <v>32</v>
       </c>
@@ -6647,7 +6639,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="10">
         <v>32</v>
       </c>
@@ -6670,7 +6662,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="13">
         <v>32</v>
       </c>
@@ -6693,7 +6685,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="7">
         <v>33</v>
       </c>
@@ -6716,7 +6708,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="10">
         <v>33</v>
       </c>
@@ -6739,7 +6731,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="10">
         <v>33</v>
       </c>
@@ -6762,7 +6754,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="10">
         <v>33</v>
       </c>
@@ -6785,7 +6777,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="10">
         <v>33</v>
       </c>
@@ -6808,7 +6800,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="10">
         <v>33</v>
       </c>
@@ -6831,7 +6823,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="10">
         <v>33</v>
       </c>
@@ -6854,7 +6846,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="10">
         <v>33</v>
       </c>
@@ -6877,7 +6869,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="10">
         <v>33</v>
       </c>
@@ -6900,7 +6892,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="13">
         <v>33</v>
       </c>
@@ -6923,7 +6915,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="7">
         <v>34</v>
       </c>
@@ -6946,7 +6938,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257" s="10">
         <v>34</v>
       </c>
@@ -6969,7 +6961,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258" s="10">
         <v>34</v>
       </c>
@@ -6992,7 +6984,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259" s="10">
         <v>34</v>
       </c>
@@ -7015,7 +7007,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260" s="10">
         <v>34</v>
       </c>
@@ -7038,7 +7030,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261" s="10">
         <v>34</v>
       </c>
@@ -7061,7 +7053,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262" s="10">
         <v>34</v>
       </c>
@@ -7084,7 +7076,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263" s="10">
         <v>34</v>
       </c>
@@ -7107,7 +7099,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264" s="13">
         <v>34</v>
       </c>
@@ -7130,7 +7122,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265" s="7">
         <v>35</v>
       </c>
@@ -7153,7 +7145,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266" s="10">
         <v>35</v>
       </c>
@@ -7176,7 +7168,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267" s="10">
         <v>35</v>
       </c>
@@ -7199,7 +7191,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268" s="10">
         <v>35</v>
       </c>
@@ -7222,7 +7214,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269" s="10">
         <v>35</v>
       </c>
@@ -7245,7 +7237,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270" s="13">
         <v>35</v>
       </c>
@@ -7268,7 +7260,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271" s="7">
         <v>36</v>
       </c>
@@ -7291,7 +7283,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272" s="10">
         <v>36</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="10">
         <v>36</v>
       </c>
@@ -7337,7 +7329,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="10">
         <v>36</v>
       </c>
@@ -7360,7 +7352,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="10">
         <v>36</v>
       </c>
@@ -7383,7 +7375,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="10">
         <v>36</v>
       </c>
@@ -7406,7 +7398,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="10">
         <v>36</v>
       </c>
@@ -7429,7 +7421,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="13">
         <v>36</v>
       </c>
@@ -7452,7 +7444,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>37</v>
       </c>
@@ -7475,7 +7467,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="3">
         <v>37</v>
       </c>
@@ -7498,7 +7490,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="3">
         <v>37</v>
       </c>
@@ -7521,7 +7513,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7">
       <c r="A282" s="3">
         <v>37</v>
       </c>
@@ -7544,7 +7536,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="3">
         <v>37</v>
       </c>
@@ -7567,7 +7559,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="3">
         <v>37</v>
       </c>
@@ -7590,7 +7582,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="3">
         <v>37</v>
       </c>
@@ -7613,7 +7605,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="3">
         <v>37</v>
       </c>
@@ -7636,7 +7628,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="3">
         <v>37</v>
       </c>
@@ -7659,7 +7651,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7">
       <c r="A288" s="5">
         <v>37</v>
       </c>
@@ -7682,7 +7674,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7">
       <c r="A289" s="7">
         <v>38</v>
       </c>
@@ -7705,7 +7697,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290" s="10">
         <v>38</v>
       </c>
@@ -7728,7 +7720,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291" s="10">
         <v>38</v>
       </c>
@@ -7751,7 +7743,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292" s="10">
         <v>38</v>
       </c>
@@ -7774,7 +7766,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7">
       <c r="A293" s="10">
         <v>38</v>
       </c>
@@ -7797,7 +7789,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294" s="10">
         <v>38</v>
       </c>
@@ -7820,7 +7812,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295" s="10">
         <v>38</v>
       </c>
@@ -7843,7 +7835,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296" s="10">
         <v>38</v>
       </c>
@@ -7866,7 +7858,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297" s="7">
         <v>39</v>
       </c>
@@ -7889,7 +7881,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298" s="10">
         <v>39</v>
       </c>
@@ -7912,7 +7904,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299" s="10">
         <v>39</v>
       </c>
@@ -7935,7 +7927,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300" s="10">
         <v>39</v>
       </c>
@@ -7958,7 +7950,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301" s="10">
         <v>39</v>
       </c>
@@ -7981,7 +7973,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="A302" s="10">
         <v>39</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="A303" s="10">
         <v>39</v>
       </c>
@@ -8027,7 +8019,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="A304" s="10">
         <v>39</v>
       </c>
@@ -8050,7 +8042,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="A305" s="13">
         <v>39</v>
       </c>
@@ -8073,7 +8065,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" s="3">
         <v>40</v>
       </c>
@@ -8096,7 +8088,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" s="3">
         <v>40</v>
       </c>
@@ -8119,7 +8111,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" s="3">
         <v>40</v>
       </c>
@@ -8142,7 +8134,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" s="3">
         <v>40</v>
       </c>
@@ -8165,7 +8157,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" s="3">
         <v>40</v>
       </c>
@@ -8188,7 +8180,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" s="3">
         <v>40</v>
       </c>
@@ -8211,7 +8203,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" s="3">
         <v>40</v>
       </c>
@@ -8234,7 +8226,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" s="5">
         <v>40</v>
       </c>
@@ -8257,7 +8249,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" s="7">
         <v>41</v>
       </c>
@@ -8280,7 +8272,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" s="10">
         <v>41</v>
       </c>
@@ -8303,7 +8295,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" s="10">
         <v>41</v>
       </c>
@@ -8326,7 +8318,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" s="10">
         <v>41</v>
       </c>
@@ -8349,7 +8341,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7">
       <c r="A318" s="10">
         <v>41</v>
       </c>
@@ -8372,7 +8364,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7">
       <c r="A319" s="10">
         <v>41</v>
       </c>
@@ -8395,7 +8387,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7">
       <c r="A320" s="13">
         <v>41</v>
       </c>
@@ -8418,7 +8410,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7">
       <c r="A321" s="7">
         <v>42</v>
       </c>
@@ -8441,7 +8433,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7">
       <c r="A322" s="10">
         <v>42</v>
       </c>
@@ -8464,7 +8456,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7">
       <c r="A323" s="10">
         <v>42</v>
       </c>
@@ -8487,7 +8479,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7">
       <c r="A324" s="10">
         <v>42</v>
       </c>
@@ -8510,7 +8502,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7">
       <c r="A325" s="10">
         <v>42</v>
       </c>
@@ -8533,7 +8525,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7">
       <c r="A326" s="10">
         <v>42</v>
       </c>
@@ -8556,7 +8548,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7">
       <c r="A327" s="13">
         <v>42</v>
       </c>
@@ -8579,7 +8571,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7">
       <c r="A328" s="7">
         <v>43</v>
       </c>
@@ -8602,7 +8594,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7">
       <c r="A329" s="10">
         <v>43</v>
       </c>
@@ -8625,7 +8617,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7">
       <c r="A330" s="10">
         <v>43</v>
       </c>
@@ -8648,7 +8640,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7">
       <c r="A331" s="10">
         <v>43</v>
       </c>
@@ -8671,7 +8663,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7">
       <c r="A332" s="10">
         <v>43</v>
       </c>
@@ -8694,7 +8686,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7">
       <c r="A333" s="10">
         <v>43</v>
       </c>
@@ -8717,7 +8709,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7">
       <c r="A334" s="10">
         <v>43</v>
       </c>
@@ -8740,7 +8732,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7">
       <c r="A335" s="10">
         <v>43</v>
       </c>
@@ -8763,7 +8755,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7">
       <c r="A336" s="10">
         <v>43</v>
       </c>
@@ -8786,7 +8778,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7">
       <c r="A337" s="7">
         <v>44</v>
       </c>
@@ -8809,7 +8801,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7">
       <c r="A338" s="10">
         <v>44</v>
       </c>
@@ -8832,7 +8824,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7">
       <c r="A339" s="13">
         <v>44</v>
       </c>
@@ -8856,7 +8848,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F339">
+  <sortState ref="A2:F339">
     <sortCondition ref="A2:A339"/>
     <sortCondition ref="C2:C339"/>
   </sortState>
